--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3411516.640908667</v>
+        <v>3515696.275359738</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845767.170793235</v>
+        <v>7845767.170793234</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.858513800114771</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>77.31354443380498</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>24.10045761650962</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>369.3140243501842</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>33.38304376059105</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>126.5530913841969</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>143.4248579225453</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>369.0810325525482</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.686682526454732</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>119.7717018720445</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>187.4572656874209</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>211.1474991249037</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.0116223990573</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>4.019807611472458</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>134.339113733127</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>168.5023926007956</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5163679066134</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>134.339113733127</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>106.1291803787684</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>71.5632757833971</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>41.3370399414308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.66638448560049</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.3373146097486</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>207.619166864543</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>119.2889395926989</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>164.713130801099</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>86.24032515900481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1242.542113288976</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>884.2764146822253</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>498.4881620839811</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>87.50225729437352</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>76.47021117977407</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1998.104470293509</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>2343.707767180342</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>2174.771584252435</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>2024.654944840099</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.741851257706</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>1729.851903759796</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T4" t="n">
-        <v>1849.200058761417</v>
+        <v>2912.153322005522</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.097191887061</v>
+        <v>2912.153322005522</v>
       </c>
       <c r="V4" t="n">
-        <v>1305.412703681174</v>
+        <v>2657.468833799635</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.995533644213</v>
+        <v>2368.051663762675</v>
       </c>
       <c r="X4" t="n">
-        <v>788.005982746196</v>
+        <v>2343.707767180342</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.2134036026658</v>
+        <v>2343.707767180342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.34156756514</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C5" t="n">
-        <v>1712.34156756514</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D5" t="n">
-        <v>1354.075868958389</v>
+        <v>878.3737829461486</v>
       </c>
       <c r="E5" t="n">
-        <v>968.287616360145</v>
+        <v>492.5855303479044</v>
       </c>
       <c r="F5" t="n">
-        <v>557.3017115705375</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>142.2292614155339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866153</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605073</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>975.2294612008251</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>806.2932782729182</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>656.1766388605824</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>508.2635452781893</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1692.590496984864</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1692.590496984864</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1403.487630110508</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1148.803141904621</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>859.3859718676605</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>859.3859718676605</v>
+        <v>1196.022040344355</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>975.2294612008251</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450752</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1716.482573803551</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1494.715958373077</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1205.613091498721</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>950.9286032928337</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>661.511433255873</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X10" t="n">
-        <v>433.5218823578557</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1051.964939354869</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>265.073174061852</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>97.87707477673194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>97.87707477673194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3403484614391</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6257,7 +6259,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,25 +6302,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961267</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>847.644273983533</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300426</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926978</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>4435.461999481585</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2939.372134388645</v>
+        <v>3229.653730559302</v>
       </c>
       <c r="C37" t="n">
-        <v>2770.435951460739</v>
+        <v>3060.717547631396</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661314</v>
+        <v>2910.60090821906</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>2762.687814636667</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>4149.50149546805</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>3860.084325431089</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>3632.094774533072</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>3411.302195389542</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.5350811160199</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C40" t="n">
-        <v>532.5350811160199</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075794</v>
@@ -7491,19 +7493,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1051.96493935487</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>883.0287564269629</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>732.9121170146271</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>584.999023432234</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>438.1090759343236</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,19 +7645,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311364</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032295</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613761</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>6.257951202384589</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.23519869957052</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>77.24602870709306</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.90770736550078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>40.09910511159893</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.24553961896774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>146.0084629450596</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>147.0213775686977</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>107.2784330767816</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>111.7546635373308</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.49466557218872</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>10.96548648755174</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>46.23519869956999</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.533690297528864</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
@@ -26341,16 +26343,16 @@
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132558</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26363,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813255</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678133</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26457,7 +26459,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.1722226561</v>
+        <v>-766959.1722226554</v>
       </c>
       <c r="C6" t="n">
         <v>561785.5735049366</v>
       </c>
       <c r="D6" t="n">
-        <v>561785.5735049371</v>
+        <v>561785.5735049362</v>
       </c>
       <c r="E6" t="n">
-        <v>309518.5247952113</v>
+        <v>309518.5247952119</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.9866025673</v>
+        <v>634930.9866025667</v>
       </c>
       <c r="G6" t="n">
+        <v>634930.9866025668</v>
+      </c>
+      <c r="H6" t="n">
+        <v>634930.9866025669</v>
+      </c>
+      <c r="I6" t="n">
+        <v>634930.9866025671</v>
+      </c>
+      <c r="J6" t="n">
+        <v>417399.7842052894</v>
+      </c>
+      <c r="K6" t="n">
+        <v>634930.9866025669</v>
+      </c>
+      <c r="L6" t="n">
+        <v>634930.9866025671</v>
+      </c>
+      <c r="M6" t="n">
+        <v>549875.9586670558</v>
+      </c>
+      <c r="N6" t="n">
+        <v>634930.9866025667</v>
+      </c>
+      <c r="O6" t="n">
+        <v>634930.9866025671</v>
+      </c>
+      <c r="P6" t="n">
         <v>634930.986602567</v>
-      </c>
-      <c r="H6" t="n">
-        <v>634930.9866025671</v>
-      </c>
-      <c r="I6" t="n">
-        <v>634930.986602567</v>
-      </c>
-      <c r="J6" t="n">
-        <v>417399.7842052895</v>
-      </c>
-      <c r="K6" t="n">
-        <v>634930.986602567</v>
-      </c>
-      <c r="L6" t="n">
-        <v>634930.9866025677</v>
-      </c>
-      <c r="M6" t="n">
-        <v>549875.9586670551</v>
-      </c>
-      <c r="N6" t="n">
-        <v>634930.9866025668</v>
-      </c>
-      <c r="O6" t="n">
-        <v>634930.9866025668</v>
-      </c>
-      <c r="P6" t="n">
-        <v>634930.9866025671</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>284.7492505872057</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>142.2354048423642</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>201.6091977725275</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>37.5620213915272</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>261.2247206267294</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>18.86795663873438</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>46.34416740889657</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.65280911093237</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.0444181520143</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>69.99732345939735</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>38.25238970161624</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29761,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-9.368965401895893e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724569</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430268</v>
+        <v>592.1874941409608</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32548,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32560,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>660.0558748011979</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33022,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>436.0678650906011</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,19 +33970,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.1165249313363</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34445,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>459.3154675919703</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>159.0482712280125</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>73.1808046631526</v>
+        <v>453.6331143610865</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>517.9218408791795</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,10 +36217,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,7 +36691,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>302.0934576762708</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,13 +37165,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.13475084531481</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38093,10 +38095,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3515696.275359738</v>
+        <v>3511683.665345745</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>9.858513800114771</v>
+        <v>233.1639621694949</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>24.10045761650962</v>
+        <v>105.1018445532435</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>369.3140243501842</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>142.0975176632397</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>126.5530913841969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>166.6163720000266</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>6.686682526454732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>187.4572656874209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6255456814127</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>121.0116223990573</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.0663491738889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>168.5023926007956</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.5163679066134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.368773976748</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>106.1291803787684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.5632757833971</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.66638448560049</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>207.619166864543</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>119.2889395926989</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>164.713130801099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.504630229387</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.542113288976</v>
+        <v>1914.140475048881</v>
       </c>
       <c r="D2" t="n">
-        <v>884.2764146822253</v>
+        <v>1555.87477644213</v>
       </c>
       <c r="E2" t="n">
-        <v>498.4881620839811</v>
+        <v>1170.086523843886</v>
       </c>
       <c r="F2" t="n">
-        <v>87.50225729437352</v>
+        <v>759.1006190542787</v>
       </c>
       <c r="G2" t="n">
-        <v>76.47021117977407</v>
+        <v>344.0281688992752</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,10 +4345,10 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269321</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.104470293509</v>
+        <v>2283.102991989293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2343.707767180342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.771584252435</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.654944840099</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257706</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759796</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005522</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.153322005522</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>2657.468833799635</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W4" t="n">
-        <v>2368.051663762675</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X4" t="n">
-        <v>2343.707767180342</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>2343.707767180342</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.601998493311</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.639481552899</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3737829461486</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="E5" t="n">
-        <v>492.5855303479044</v>
+        <v>621.0308673462755</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>210.0449625566679</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>975.2294612008251</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>806.2932782729182</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>656.1766388605824</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>508.2635452781893</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344355</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2294612008251</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>2102.48089954095</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1733.518382600538</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1375.252683993788</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>989.4644313955434</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2489.080739605072</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.676735765777</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1104.32596234414</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273896</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,34 +5178,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,25 +5269,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5299,19 +5299,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1051.964939354869</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473548</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6709,43 +6709,43 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3229.653730559302</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>3060.717547631396</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2910.60090821906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2762.687814636667</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>4404.185983673937</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>4149.50149546805</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3860.084325431089</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3632.094774533072</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3411.302195389542</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232836</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>961.2628027535234</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,13 +7502,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1051.96493935487</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>883.0287564269629</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>732.9121170146271</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>584.999023432234</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>438.1090759343236</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.7575184984</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.96493935487</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.728406165343709e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D13" t="n">
-        <v>124.9899273367997</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.23519869957052</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.09910511159893</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>7.065188669821197</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>146.0084629450596</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>111.7546635373308</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>10.96548648755174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>46.23519869956999</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.533690297528864</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.954454091901425e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22759808821138e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813255</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26441,13 +26441,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.1722226554</v>
+        <v>-766959.172222656</v>
       </c>
       <c r="C6" t="n">
+        <v>561785.5735049363</v>
+      </c>
+      <c r="D6" t="n">
         <v>561785.5735049366</v>
       </c>
-      <c r="D6" t="n">
-        <v>561785.5735049362</v>
-      </c>
       <c r="E6" t="n">
-        <v>309518.5247952119</v>
+        <v>309171.1455408551</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.9866025667</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="G6" t="n">
-        <v>634930.9866025668</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="H6" t="n">
-        <v>634930.9866025669</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="I6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482101</v>
       </c>
       <c r="J6" t="n">
-        <v>417399.7842052894</v>
+        <v>417052.4049509327</v>
       </c>
       <c r="K6" t="n">
-        <v>634930.9866025669</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="L6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="M6" t="n">
-        <v>549875.9586670558</v>
+        <v>549528.579412698</v>
       </c>
       <c r="N6" t="n">
-        <v>634930.9866025667</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="O6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="P6" t="n">
-        <v>634930.986602567</v>
+        <v>634583.6073482099</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,28 +26962,28 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>284.7492505872057</v>
+        <v>61.44380221782558</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6091977725275</v>
+        <v>120.6078108357937</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>37.5620213915272</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>268.8242079902138</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.86795663873438</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>240.2596737416849</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>363.0444181520143</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>38.25238970161624</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-9.368965401895893e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>301.6445156724569</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409608</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>660.0558748011979</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>459.3154675919703</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>159.0482712280125</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610865</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>517.9218408791795</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>316.7192231475259</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3511683.665345745</v>
+        <v>3513444.19564853</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845767.170793234</v>
+        <v>7845767.170793235</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>233.1639621694949</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.284770091045716</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.02571356436833</v>
       </c>
       <c r="X4" t="n">
-        <v>105.1018445532435</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>142.0975176632397</v>
+        <v>192.8565489458253</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>166.6163720000266</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>159.7403262583155</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>45.10683729225598</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6789846282037</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>139.368773976748</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.102991989293</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C2" t="n">
-        <v>1914.140475048881</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1555.87477644213</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1170.086523843886</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>759.1006190542787</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>344.0281688992752</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4345,7 +4345,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2749.458676177105</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250372</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989293</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989293</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218339</v>
@@ -4491,13 +4491,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.675339798491</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1734.047335491682</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C5" t="n">
-        <v>1365.08481855127</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.81911994452</v>
+        <v>654.0504646744041</v>
       </c>
       <c r="E5" t="n">
-        <v>621.0308673462755</v>
+        <v>268.2622120761599</v>
       </c>
       <c r="F5" t="n">
-        <v>210.0449625566679</v>
+        <v>261.3167113269564</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2510.786507531615</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.647175555804</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2102.48089954095</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.518382600538</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.252683993788</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>989.4644313955434</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y8" t="n">
-        <v>2489.080739605072</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>406.8776194238566</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>258.9645258414635</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>112.0745783435531</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>112.0745783435531</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>112.0745783435531</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675714</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6606,10 +6606,10 @@
         <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7365,10 +7365,10 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1202.091371290588</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,7 +7648,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.728406165343709e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9753202488369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.5054897610405</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.065188669821197</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>57.22910392194231</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
@@ -26334,25 +26334,25 @@
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132547</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813259</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26441,13 +26441,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.172222656</v>
+        <v>-766959.1722226554</v>
       </c>
       <c r="C6" t="n">
-        <v>561785.5735049363</v>
+        <v>561785.5735049368</v>
       </c>
       <c r="D6" t="n">
-        <v>561785.5735049366</v>
+        <v>561785.5735049361</v>
       </c>
       <c r="E6" t="n">
-        <v>309171.1455408551</v>
+        <v>309483.786869776</v>
       </c>
       <c r="F6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="G6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="H6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="I6" t="n">
-        <v>634583.6073482101</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="J6" t="n">
-        <v>417052.4049509327</v>
+        <v>417365.0462798539</v>
       </c>
       <c r="K6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="L6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771311</v>
       </c>
       <c r="M6" t="n">
-        <v>549528.579412698</v>
+        <v>549841.2207416189</v>
       </c>
       <c r="N6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="O6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="P6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61.44380221782558</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>321.4674883790892</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>268.4972847722227</v>
       </c>
       <c r="X4" t="n">
-        <v>120.6078108357937</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>268.8242079902138</v>
+        <v>218.0651767076282</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>240.2596737416849</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>168.0119322118194</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>51.24558311758211</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -34368,10 +34368,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -38016,10 +38016,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
